--- a/doc/Android-地下城堡2.xlsx
+++ b/doc/Android-地下城堡2.xlsx
@@ -591,11 +591,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,428 +1118,409 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -1556,16 +1537,35 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1588,22 +1588,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1774,20 +1774,6 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>142</v>
@@ -1802,6 +1788,20 @@
       </c>
       <c r="E21" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Android-地下城堡2.xlsx
+++ b/doc/Android-地下城堡2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="352"/>
   </bookViews>
   <sheets>
     <sheet name="职业" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
   <si>
     <t>剑宗</t>
   </si>
@@ -503,6 +503,134 @@
   </si>
   <si>
     <t>英雄的历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古森林贤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓尔刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色最佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男战士，女战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,20 +709,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,14 +750,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>379639</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -639,6 +779,852 @@
         <a:xfrm>
           <a:off x="0" y="5143500"/>
           <a:ext cx="8201025" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>549731</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>789217</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1485902" y="321130"/>
+          <a:ext cx="239486" cy="258592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>821872</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1048531</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758043" y="468086"/>
+          <a:ext cx="226659" cy="261257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>810986</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1747157" y="4501244"/>
+          <a:ext cx="217714" cy="269227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1037195</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1736271" y="2400299"/>
+          <a:ext cx="237095" cy="283029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535619</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1268185" y="2906485"/>
+          <a:ext cx="203605" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>718515</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1382486" y="3614057"/>
+          <a:ext cx="272200" cy="283029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>821874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1017815</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758045" y="3118759"/>
+          <a:ext cx="195941" cy="230423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>778329</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1714500" y="3766457"/>
+          <a:ext cx="255814" cy="324843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>451758</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>674915</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1387929" y="990602"/>
+          <a:ext cx="223157" cy="263892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>810987</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1747158" y="1181100"/>
+          <a:ext cx="223156" cy="246756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>792122</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1502229" y="1333501"/>
+          <a:ext cx="226064" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560616</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800102</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1496787" y="2220687"/>
+          <a:ext cx="239486" cy="262294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>751115</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1442357" y="4305299"/>
+          <a:ext cx="244929" cy="282835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>696686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="696686" y="1017813"/>
+          <a:ext cx="250371" cy="242025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>745671</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="522514" y="3619501"/>
+          <a:ext cx="223157" cy="264813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>849086</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6950529" y="1714499"/>
+          <a:ext cx="304800" cy="242025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>810987</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1747158" y="1181100"/>
+          <a:ext cx="223156" cy="246756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>792122</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1502229" y="1333501"/>
+          <a:ext cx="226064" cy="283028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,6 +1771,716 @@
         <a:xfrm>
           <a:off x="7515225" y="1381125"/>
           <a:ext cx="714375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1543050"/>
+          <a:ext cx="2933700" cy="4030323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="1543050"/>
+          <a:ext cx="2962275" cy="4054139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="1543050"/>
+          <a:ext cx="2990850" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="342900"/>
+          <a:ext cx="2933700" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5657850"/>
+          <a:ext cx="2952750" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="5657850"/>
+          <a:ext cx="2981325" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="5657850"/>
+          <a:ext cx="2952750" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="5657850"/>
+          <a:ext cx="2943225" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10629900"/>
+          <a:ext cx="2952750" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="10629900"/>
+          <a:ext cx="2933700" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2059" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="10629900"/>
+          <a:ext cx="2857500" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="10629900"/>
+          <a:ext cx="2867025" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2061" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="342900"/>
+          <a:ext cx="2886075" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2062" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="5657850"/>
+          <a:ext cx="2933700" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2063" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="10629900"/>
+          <a:ext cx="2914650" cy="4943475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,483 +2785,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
+      <c r="I7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="I11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="G26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2" t="s">
+      <c r="I26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1588,22 +3470,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1739,6 +3621,9 @@
       <c r="A13" t="s">
         <v>105</v>
       </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="s">
         <v>123</v>
       </c>
@@ -1782,6 +3667,9 @@
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
       </c>
       <c r="D21" t="s">
         <v>119</v>
@@ -1814,14 +3702,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" t="s">
+        <v>158</v>
+      </c>
+      <c r="P33" t="s">
+        <v>159</v>
+      </c>
+      <c r="U33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" t="s">
+        <v>162</v>
+      </c>
+      <c r="P62" t="s">
+        <v>163</v>
+      </c>
+      <c r="U62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Android-地下城堡2.xlsx
+++ b/doc/Android-地下城堡2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="352"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="352" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="职业" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
   <si>
     <t>剑宗</t>
   </si>
@@ -414,7 +414,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格鲁塔尔</t>
+    <t>埃尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎耶尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔扎德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古森林贤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓尔刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色最佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部落法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔维纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较特殊A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇薇安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,51 +634,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>埃尔文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎耶尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫毒大师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科萨可斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔扎德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉安尼丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影刺客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文森特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始职业</t>
+    <t>杜尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉伊拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤尔诺芬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,163 +662,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜行者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野蛮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄的历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣兵王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古森林贤者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女巫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫医</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓尔刺客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半身人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据角色最佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据角色其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男战士，女战士</t>
+    <t>夜刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷格卡姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴克萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,12 +711,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -722,19 +782,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1641,6 +1701,523 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>451758</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674915</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1387929" y="990602"/>
+          <a:ext cx="223157" cy="263892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560616</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800102</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1496787" y="2220687"/>
+          <a:ext cx="239486" cy="262294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800102</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1496787" y="2220687"/>
+          <a:ext cx="239486" cy="262294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1037195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1736271" y="2400299"/>
+          <a:ext cx="237095" cy="283029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1037195</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1736271" y="2400299"/>
+          <a:ext cx="237095" cy="283029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535619</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1268185" y="2906485"/>
+          <a:ext cx="203605" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535619</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1268185" y="2906485"/>
+          <a:ext cx="203605" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>821874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1017815</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>39925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758045" y="3118759"/>
+          <a:ext cx="195941" cy="230423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>821874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1017815</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758045" y="3118759"/>
+          <a:ext cx="195941" cy="230423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680358</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>919844</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="680358" y="1371599"/>
+          <a:ext cx="239486" cy="268224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680358</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>919844</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="680358" y="1371599"/>
+          <a:ext cx="239486" cy="268224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1648,13 +2225,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1695,13 +2272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1742,13 +2319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1771,6 +2348,53 @@
         <a:xfrm>
           <a:off x="7515225" y="1381125"/>
           <a:ext cx="714375" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9344025" y="2400300"/>
+          <a:ext cx="714375" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,6 +3105,53 @@
         <a:xfrm>
           <a:off x="13716000" y="10629900"/>
           <a:ext cx="2914650" cy="4943475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16459200"/>
+          <a:ext cx="3162300" cy="4495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2801,10 +3472,10 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2824,22 +3495,22 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>172</v>
+      <c r="I2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2851,21 +3522,21 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="I3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2875,521 +3546,537 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3"/>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="5"/>
+      <c r="I26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>173</v>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -3458,239 +4145,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D18" s="7" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D22" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3702,75 +4429,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V62"/>
+  <dimension ref="A2:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P2" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>164</v>
-      </c>
-      <c r="V2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="U33" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="U62" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
